--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>Vos/Zars</t>
+  </si>
+  <si>
+    <t>ABBY_WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABBY Flexi Capture Api </t>
+  </si>
+  <si>
+    <t>PoolClub (MySnooker)</t>
+  </si>
+  <si>
+    <t>GitHubApi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp.net (Web Application) With c# </t>
+  </si>
+  <si>
+    <t>RoyalBlood (RoyalBlood Studios)</t>
+  </si>
+  <si>
+    <t>SignalRWeb (SignalR)</t>
   </si>
 </sst>
 </file>
@@ -481,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,62 +539,62 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -581,21 +602,21 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
@@ -603,133 +624,179 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>12</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>15</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>17</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>19</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>20</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
